--- a/data_processed/20250828/BTCUSDQMOMENT_20250828.xlsx
+++ b/data_processed/20250828/BTCUSDQMOMENT_20250828.xlsx
@@ -1076,10 +1076,18 @@
       <c r="H17" t="n">
         <v>6.7565544071346</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>-0.2889366546078636</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1255641108669581</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2492139062772706</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.134687693561835</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">

--- a/data_processed/20250828/BTCUSDQMOMENT_20250828.xlsx
+++ b/data_processed/20250828/BTCUSDQMOMENT_20250828.xlsx
@@ -580,19 +580,19 @@
         <v>0.1753424657534247</v>
       </c>
       <c r="D4" t="n">
-        <v>113657.8866348983</v>
+        <v>113573.8422524486</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02045178009180459</v>
+        <v>-0.02389311441453535</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1739866699485718</v>
+        <v>0.1863027698936319</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.9769200819648814</v>
+        <v>-1.420897712649651</v>
       </c>
       <c r="H4" t="n">
-        <v>8.733217702984591</v>
+        <v>12.30725302030576</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -648,19 +648,19 @@
         <v>0.3287671232876712</v>
       </c>
       <c r="D6" t="n">
-        <v>114909.9205220632</v>
+        <v>114907.6258735845</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03005513317970991</v>
+        <v>-0.030215779576078</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2287419059978835</v>
+        <v>0.2297571791027435</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.435859888300817</v>
+        <v>-1.475677235959236</v>
       </c>
       <c r="H6" t="n">
-        <v>11.03242091045616</v>
+        <v>11.46325218886858</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -716,19 +716,19 @@
         <v>0.7506849315068493</v>
       </c>
       <c r="D8" t="n">
-        <v>116650.8365771396</v>
+        <v>116648.0593894568</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.04444121295029863</v>
+        <v>-0.044540681786888</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2043781248470398</v>
+        <v>0.2047575199294869</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.058005692006027</v>
+        <v>-1.069679848952052</v>
       </c>
       <c r="H8" t="n">
-        <v>7.349494523200217</v>
+        <v>7.442129706015947</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -750,19 +750,19 @@
         <v>0.8273972602739726</v>
       </c>
       <c r="D9" t="n">
-        <v>118184.5733020216</v>
+        <v>118197.9349878586</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07275969158487282</v>
+        <v>-0.07141440347529397</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3273976440802001</v>
+        <v>0.3179644234804466</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.906551059547126</v>
+        <v>-1.688448949661576</v>
       </c>
       <c r="H9" t="n">
-        <v>12.98182714637563</v>
+        <v>10.77396189580011</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -784,19 +784,19 @@
         <v>1.076712328767123</v>
       </c>
       <c r="D10" t="n">
-        <v>119554.3124945877</v>
+        <v>119556.9225141097</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1179107498468363</v>
+        <v>-0.1174893032825472</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4442470354150992</v>
+        <v>0.4412331378602905</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.923407690911055</v>
+        <v>-1.88552703207416</v>
       </c>
       <c r="H10" t="n">
-        <v>9.861442704393101</v>
+        <v>9.522205608575337</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -978,19 +978,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D15" t="n">
-        <v>112770.9328114415</v>
+        <v>112756.5884329135</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.02241598953907419</v>
+        <v>-0.02350322210009533</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1301063929882369</v>
+        <v>0.1327488096091299</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.54752031236133</v>
+        <v>-0.6607562226556706</v>
       </c>
       <c r="H15" t="n">
-        <v>6.883644024329691</v>
+        <v>7.546967890305524</v>
       </c>
       <c r="I15" t="n">
         <v>-0.5631808711650189</v>
@@ -1104,19 +1104,19 @@
         <v>0.06027397260273973</v>
       </c>
       <c r="D18" t="n">
-        <v>112797.4569518125</v>
+        <v>112807.5780221454</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0273207071406505</v>
+        <v>-0.02665615810723996</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1659304154922008</v>
+        <v>0.1628785304374701</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.7375678467532131</v>
+        <v>-0.6252628023087783</v>
       </c>
       <c r="H18" t="n">
-        <v>6.938219455054146</v>
+        <v>6.294792007321606</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>

--- a/data_processed/20250828/BTCUSDQMOMENT_20250828.xlsx
+++ b/data_processed/20250828/BTCUSDQMOMENT_20250828.xlsx
@@ -560,10 +560,18 @@
       <c r="H3" t="n">
         <v>10.41746039853734</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.02771999520026541</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2017825026771763</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.1442416672937439</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.884282423600032</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1118,10 +1126,18 @@
       <c r="H18" t="n">
         <v>6.294792007321606</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.04310385262431051</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2218784001470977</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.07215184008446832</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.773196942078461</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250828/BTCUSDQMOMENT_20250828.xlsx
+++ b/data_processed/20250828/BTCUSDQMOMENT_20250828.xlsx
@@ -1168,10 +1168,18 @@
       <c r="H19" t="n">
         <v>41.96604126698929</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.03477683984818711</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2704625831437422</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2362491449239708</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.364507701123102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250828/BTCUSDQMOMENT_20250828.xlsx
+++ b/data_processed/20250828/BTCUSDQMOMENT_20250828.xlsx
@@ -602,10 +602,18 @@
       <c r="H4" t="n">
         <v>12.30725302030576</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.07225593691223042</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5349644508647857</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7136139080027292</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.972965183273405</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
